--- a/xlsx/common_ocr_errors_list.xlsx
+++ b/xlsx/common_ocr_errors_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>c</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Q</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,10 +478,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -483,23 +489,23 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,15 +513,31 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
